--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -29,28 +29,28 @@
     <t>Университеты</t>
   </si>
   <si>
+    <t>Инженерия</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений</t>
+  </si>
+  <si>
+    <t>Психология</t>
+  </si>
+  <si>
+    <t>Московский Выдуманный Университет, Московский Придуманный Институт</t>
+  </si>
+  <si>
     <t>Медицина</t>
   </si>
   <si>
     <t>Московский Государственный Медицинский Университет, Тамбовский Университет Медицины, Самарский Медицинский Институт</t>
-  </si>
-  <si>
-    <t>Психология</t>
-  </si>
-  <si>
-    <t>Московский Выдуманный Университет, Московский Придуманный Институт</t>
-  </si>
-  <si>
-    <t>Инженерия</t>
-  </si>
-  <si>
-    <t>Воронежский Литературно-Переводческий Университет</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений</t>
   </si>
 </sst>
 </file>
@@ -136,13 +136,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>4.329999923706055</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -153,13 +153,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.539999961853027</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>
@@ -170,13 +170,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.0</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>10</v>
@@ -187,13 +187,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>0.0</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>12</v>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -29,6 +29,18 @@
     <t>Университеты</t>
   </si>
   <si>
+    <t>Психология</t>
+  </si>
+  <si>
+    <t>Московский Выдуманный Университет, Московский Придуманный Институт</t>
+  </si>
+  <si>
+    <t>Медицина</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет, Тамбовский Университет Медицины, Самарский Медицинский Институт</t>
+  </si>
+  <si>
     <t>Инженерия</t>
   </si>
   <si>
@@ -39,18 +51,6 @@
   </si>
   <si>
     <t>Казанский Университет Вычислений</t>
-  </si>
-  <si>
-    <t>Психология</t>
-  </si>
-  <si>
-    <t>Московский Выдуманный Университет, Московский Придуманный Институт</t>
-  </si>
-  <si>
-    <t>Медицина</t>
-  </si>
-  <si>
-    <t>Московский Государственный Медицинский Университет, Тамбовский Университет Медицины, Самарский Медицинский Институт</t>
   </si>
 </sst>
 </file>
@@ -136,13 +136,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.0</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -153,13 +153,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.0</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>
@@ -170,13 +170,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>4.539999961853027</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>10</v>
@@ -187,13 +187,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>4.329999923706055</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>12</v>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Project. Task 27.8" r:id="rId3" sheetId="1"/>
+    <sheet name="Statistics" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Профиль обучения</t>
   </si>
@@ -20,37 +20,16 @@
     <t>Средний балл</t>
   </si>
   <si>
-    <t>Кол-во студентов</t>
+    <t>MATH</t>
   </si>
   <si>
-    <t>Кол-во университетов</t>
+    <t>MEDICINE</t>
   </si>
   <si>
-    <t>Университеты</t>
+    <t>PSYCHOLOGY</t>
   </si>
   <si>
-    <t>Психология</t>
-  </si>
-  <si>
-    <t>Московский Выдуманный Университет, Московский Придуманный Институт</t>
-  </si>
-  <si>
-    <t>Медицина</t>
-  </si>
-  <si>
-    <t>Московский Государственный Медицинский Университет, Тамбовский Университет Медицины, Самарский Медицинский Институт</t>
-  </si>
-  <si>
-    <t>Инженерия</t>
-  </si>
-  <si>
-    <t>Воронежский Литературно-Переводческий Университет</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений</t>
+    <t>ENGINEERING</t>
   </si>
 </sst>
 </file>
@@ -101,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -109,9 +88,6 @@
   <cols>
     <col min="1" max="1" width="18.93359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.19140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.23046875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.67578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="111.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,82 +97,37 @@
       <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>4.539999961853027</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>6</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.329999923706055</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>8</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>10</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>0.0</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
